--- a/document/测试/chatbot_测试用例评审纪要.xlsx
+++ b/document/测试/chatbot_测试用例评审纪要.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheever/Desktop/chatbot/测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenshu.zhu\Desktop\聊天机器人\project\document\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4E033-9EBC-804F-A106-5CC5A320DEC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="用例走读纪要模板" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>用例走读纪要</t>
   </si>
@@ -101,12 +100,62 @@
   <si>
     <t>小组全体人员</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>把歌名库中的歧义词删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当判断意图为闲聊之后词槽置为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充测试的示例数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern算法模块、机器人server模块、技能server模块、前端模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晨澍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern算法模块、机器人server模块、技能server模块、前端模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付丽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雨慧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晨澍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付丽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晨澍、李充厅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>取消</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -496,7 +545,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="68.1640625" style="1" customWidth="1"/>
@@ -896,16 +945,22 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="32"/>
-      <c r="G2" s="38"/>
+      <c r="G2" s="38">
+        <v>43686</v>
+      </c>
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -946,7 +1001,9 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1029,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1002,36 +1059,66 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15">
+        <v>43686</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="15">
+        <v>43686</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15">
+        <v>43686</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8">
@@ -1166,24 +1253,24 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"通过,待改善"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G10 G13:G19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G10 G13:G19">
       <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20:G21" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20:G21">
       <formula1>"已修改,未修改,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H21" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H21">
       <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/document/测试/chatbot_测试用例评审纪要.xlsx
+++ b/document/测试/chatbot_测试用例评审纪要.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenshu.zhu\Desktop\聊天机器人\project\document\测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\chatbot_server\robochat\document\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="20544" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="用例走读纪要模板" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>用例走读纪要</t>
   </si>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>曹雨慧</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>朱晨澍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -149,14 +145,15 @@
     <t>完成</t>
   </si>
   <si>
-    <t>取消</t>
+    <t>曹玉慧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -915,21 +912,21 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -941,7 +938,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="91.5" customHeight="1">
+    <row r="2" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -963,7 +960,7 @@
       </c>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -983,7 +980,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +994,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1016,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" ht="8.5" customHeight="1">
+    <row r="6" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1029,7 +1026,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1067,17 +1064,17 @@
         <v>28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="15">
         <v>43686</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1089,17 +1086,17 @@
         <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="15">
         <v>43686</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="29">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1108,20 +1105,20 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="15">
         <v>43686</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -1132,7 +1129,7 @@
       <c r="F11" s="15"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1143,7 +1140,7 @@
       <c r="F12" s="15"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1155,7 +1152,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -1167,7 +1164,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="12"/>
       <c r="C15" s="20"/>
@@ -1177,7 +1174,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="C16" s="20"/>
@@ -1187,7 +1184,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="12"/>
       <c r="C17" s="20"/>
@@ -1197,7 +1194,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="12"/>
       <c r="C18" s="20"/>
@@ -1207,7 +1204,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="12"/>
       <c r="C19" s="20"/>
@@ -1217,7 +1214,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1227,7 +1224,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
